--- a/SRC/test-02 New PCB ATWork 2023/Python/Heading_data.xlsx
+++ b/SRC/test-02 New PCB ATWork 2023/Python/Heading_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.299999999999999</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.599999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.899999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.199999999999999</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.499999999999999</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.799999999999999</v>
+        <v>6.400000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.099999999999999</v>
+        <v>6.800000000000002</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.399999999999999</v>
+        <v>7.200000000000002</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.699999999999998</v>
+        <v>7.600000000000002</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.999999999999998</v>
+        <v>8.000000000000002</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.299999999999998</v>
+        <v>8.400000000000002</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.599999999999998</v>
+        <v>8.800000000000002</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.899999999999998</v>
+        <v>9.200000000000003</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.199999999999998</v>
+        <v>9.600000000000003</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.499999999999997</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.799999999999997</v>
+        <v>10.4</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.099999999999998</v>
+        <v>10.8</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.399999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.699999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.300000000000001</v>
+        <v>12.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.600000000000001</v>
+        <v>12.80000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.900000000000002</v>
+        <v>13.20000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10.2</v>
+        <v>13.60000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.5</v>
+        <v>14.00000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10.8</v>
+        <v>14.40000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.1</v>
+        <v>14.80000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.40000000000001</v>
+        <v>15.20000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.70000000000001</v>
+        <v>15.60000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.00000000000001</v>
+        <v>16.00000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.30000000000001</v>
+        <v>16.40000000000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.60000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.90000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.20000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.50000000000001</v>
+        <v>18</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.80000000000001</v>
+        <v>18.4</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.10000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14.40000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.70000000000001</v>
+        <v>19.59999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.00000000000001</v>
+        <v>19.99999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.30000000000001</v>
+        <v>20.39999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.60000000000002</v>
+        <v>20.79999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.90000000000002</v>
+        <v>21.19999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16.20000000000002</v>
+        <v>21.59999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16.50000000000002</v>
+        <v>21.99999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D57" t="n">
-        <v>-2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16.80000000000002</v>
+        <v>22.39999999999998</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D58" t="n">
-        <v>-2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17.10000000000002</v>
+        <v>22.79999999999998</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D59" t="n">
-        <v>-2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17.40000000000002</v>
+        <v>23.19999999999998</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
-        <v>-2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17.70000000000002</v>
+        <v>23.59999999999998</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
-        <v>-3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18.00000000000002</v>
+        <v>23.99999999999998</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>-3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18.30000000000002</v>
+        <v>24.39999999999998</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
-        <v>-3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18.60000000000002</v>
+        <v>24.79999999999998</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D64" t="n">
-        <v>-4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18.90000000000002</v>
+        <v>25.19999999999997</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D65" t="n">
-        <v>-4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.20000000000002</v>
+        <v>25.59999999999997</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
-        <v>-4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.50000000000002</v>
+        <v>25.99999999999997</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D67" t="n">
-        <v>-4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19.80000000000003</v>
+        <v>26.39999999999997</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D68" t="n">
-        <v>-4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20.10000000000003</v>
+        <v>26.79999999999997</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>-5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20.40000000000003</v>
+        <v>27.19999999999997</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>-5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20.70000000000003</v>
+        <v>27.59999999999997</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D71" t="n">
-        <v>-5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21.00000000000003</v>
+        <v>27.99999999999996</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D72" t="n">
-        <v>-5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21.30000000000003</v>
+        <v>28.39999999999996</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.60000000000003</v>
+        <v>28.79999999999996</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.90000000000003</v>
+        <v>29.19999999999996</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22.20000000000003</v>
+        <v>29.59999999999996</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22.50000000000003</v>
+        <v>29.99999999999996</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22.80000000000003</v>
+        <v>30.39999999999996</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23.10000000000003</v>
+        <v>30.79999999999995</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>-5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23.40000000000003</v>
+        <v>31.19999999999995</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23.70000000000003</v>
+        <v>31.59999999999995</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>-5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>24.00000000000004</v>
+        <v>31.99999999999995</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>-5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.30000000000004</v>
+        <v>32.39999999999995</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>-5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>24.60000000000004</v>
+        <v>32.79999999999995</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>-5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>24.90000000000004</v>
+        <v>33.19999999999995</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>-5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.20000000000004</v>
+        <v>33.59999999999994</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>-5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>25.50000000000004</v>
+        <v>33.99999999999994</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.80000000000004</v>
+        <v>34.39999999999994</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>-5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.10000000000004</v>
+        <v>34.79999999999994</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D89" t="n">
-        <v>-5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26.40000000000004</v>
+        <v>35.19999999999994</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D90" t="n">
-        <v>-4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.70000000000004</v>
+        <v>35.59999999999994</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D91" t="n">
-        <v>-4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.00000000000004</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D92" t="n">
-        <v>-4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.30000000000004</v>
+        <v>36.39999999999993</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
-        <v>-4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.60000000000004</v>
+        <v>36.79999999999993</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>-4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.90000000000004</v>
+        <v>37.19999999999993</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D95" t="n">
-        <v>-3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>28.20000000000005</v>
+        <v>37.59999999999993</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D96" t="n">
-        <v>-3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>28.50000000000005</v>
+        <v>37.99999999999993</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D97" t="n">
-        <v>-3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>28.80000000000005</v>
+        <v>38.39999999999993</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D98" t="n">
-        <v>-3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>29.10000000000005</v>
+        <v>38.79999999999993</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D99" t="n">
-        <v>-2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29.40000000000005</v>
+        <v>39.19999999999992</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D100" t="n">
-        <v>-2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>29.70000000000005</v>
+        <v>39.59999999999992</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D101" t="n">
-        <v>-2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.00000000000005</v>
+        <v>39.99999999999992</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.30000000000005</v>
+        <v>40.39999999999992</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.60000000000005</v>
+        <v>40.79999999999992</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.90000000000005</v>
+        <v>41.19999999999992</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>31.20000000000005</v>
+        <v>41.59999999999992</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>31.50000000000005</v>
+        <v>41.99999999999991</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>31.80000000000005</v>
+        <v>42.39999999999991</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>32.10000000000005</v>
+        <v>42.79999999999991</v>
       </c>
       <c r="C109" t="n">
+        <v>19</v>
+      </c>
+      <c r="D109" t="n">
         <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>32.40000000000005</v>
+        <v>43.19999999999991</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>32.70000000000005</v>
+        <v>43.59999999999991</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>33.00000000000004</v>
+        <v>43.99999999999991</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>33.30000000000004</v>
+        <v>44.39999999999991</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>33.60000000000004</v>
+        <v>44.7999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>33.90000000000003</v>
+        <v>45.1999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>34.20000000000003</v>
+        <v>45.5999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>34.50000000000003</v>
+        <v>45.9999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>34.80000000000003</v>
+        <v>46.3999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.10000000000002</v>
+        <v>46.7999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>35.40000000000002</v>
+        <v>47.1999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>35.70000000000002</v>
+        <v>47.59999999999989</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>36.00000000000001</v>
+        <v>47.99999999999989</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D122" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>36.30000000000001</v>
+        <v>48.39999999999989</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>36.60000000000001</v>
+        <v>48.79999999999989</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>36.90000000000001</v>
+        <v>49.19999999999989</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>37.2</v>
+        <v>49.59999999999989</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>37.5</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D127" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>37.8</v>
+        <v>50.39999999999988</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>38.09999999999999</v>
+        <v>50.79999999999988</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>38.39999999999999</v>
+        <v>51.19999999999988</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>38.69999999999999</v>
+        <v>51.59999999999988</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>38.99999999999999</v>
+        <v>51.99999999999988</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>39.29999999999998</v>
+        <v>52.39999999999988</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>39.59999999999998</v>
+        <v>52.79999999999988</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>39.89999999999998</v>
+        <v>53.19999999999987</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>40.19999999999997</v>
+        <v>53.59999999999987</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>40.49999999999997</v>
+        <v>53.99999999999987</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>40.79999999999997</v>
+        <v>54.39999999999987</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>41.09999999999997</v>
+        <v>54.79999999999987</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>41.39999999999996</v>
+        <v>55.19999999999987</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>41.69999999999996</v>
+        <v>55.59999999999987</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>41.99999999999996</v>
+        <v>55.99999999999986</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>42.29999999999995</v>
+        <v>56.39999999999986</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>42.59999999999995</v>
+        <v>56.79999999999986</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>42.89999999999995</v>
+        <v>57.19999999999986</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>43.19999999999995</v>
+        <v>57.59999999999986</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>43.49999999999994</v>
+        <v>57.99999999999986</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>43.79999999999994</v>
+        <v>58.39999999999986</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>44.09999999999994</v>
+        <v>58.79999999999986</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>44.39999999999993</v>
+        <v>59.19999999999985</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>44.69999999999993</v>
+        <v>59.59999999999985</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>44.99999999999993</v>
+        <v>59.99999999999985</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>45.29999999999993</v>
+        <v>60.39999999999985</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>45.59999999999992</v>
+        <v>60.79999999999985</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>45.89999999999992</v>
+        <v>61.19999999999985</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>46.19999999999992</v>
+        <v>61.59999999999985</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>46.49999999999991</v>
+        <v>61.99999999999984</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>46.79999999999991</v>
+        <v>62.39999999999984</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D158" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>47.09999999999991</v>
+        <v>62.79999999999984</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D159" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>47.39999999999991</v>
+        <v>63.19999999999984</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D160" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>47.6999999999999</v>
+        <v>63.59999999999984</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D161" t="n">
-        <v>-2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>47.9999999999999</v>
+        <v>63.99999999999984</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D162" t="n">
-        <v>-2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>48.2999999999999</v>
+        <v>64.39999999999984</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D163" t="n">
-        <v>-2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>48.59999999999989</v>
+        <v>64.79999999999984</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D164" t="n">
-        <v>-2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>48.89999999999989</v>
+        <v>65.19999999999985</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D165" t="n">
-        <v>-3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>49.19999999999989</v>
+        <v>65.59999999999985</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D166" t="n">
-        <v>-3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>49.49999999999989</v>
+        <v>65.99999999999986</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D167" t="n">
-        <v>-3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>49.79999999999988</v>
+        <v>66.39999999999986</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D168" t="n">
-        <v>-3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>50.09999999999988</v>
+        <v>66.79999999999987</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D169" t="n">
-        <v>-4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>50.39999999999988</v>
+        <v>67.19999999999987</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D170" t="n">
-        <v>-4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>50.69999999999987</v>
+        <v>67.59999999999988</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D171" t="n">
-        <v>-4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>50.99999999999987</v>
+        <v>67.99999999999989</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D172" t="n">
-        <v>-4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>51.29999999999987</v>
+        <v>68.39999999999989</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D173" t="n">
-        <v>-5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>51.59999999999987</v>
+        <v>68.7999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D174" t="n">
-        <v>-5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>51.89999999999986</v>
+        <v>69.1999999999999</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D175" t="n">
-        <v>-5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>52.19999999999986</v>
+        <v>69.59999999999991</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D176" t="n">
-        <v>-5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>52.49999999999986</v>
+        <v>69.99999999999991</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D177" t="n">
-        <v>-5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>52.79999999999986</v>
+        <v>70.39999999999992</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D178" t="n">
-        <v>-5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>53.09999999999985</v>
+        <v>70.79999999999993</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D179" t="n">
-        <v>-5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>53.39999999999985</v>
+        <v>71.19999999999993</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D180" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>53.69999999999985</v>
+        <v>71.59999999999994</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>53.99999999999984</v>
+        <v>71.99999999999994</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>54.29999999999984</v>
+        <v>72.39999999999995</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>54.59999999999984</v>
+        <v>72.79999999999995</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>54.89999999999984</v>
+        <v>73.19999999999996</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>55.19999999999983</v>
+        <v>73.59999999999997</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D186" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>55.49999999999983</v>
+        <v>73.99999999999997</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D187" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>55.79999999999983</v>
+        <v>74.39999999999998</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>-5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>56.09999999999982</v>
+        <v>74.79999999999998</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>-5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>56.39999999999982</v>
+        <v>75.19999999999999</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D190" t="n">
-        <v>-5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>56.69999999999982</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>-5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>56.99999999999982</v>
+        <v>76</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D192" t="n">
-        <v>-5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>57.29999999999981</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D193" t="n">
-        <v>-5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>57.59999999999981</v>
+        <v>76.80000000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D194" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>57.89999999999981</v>
+        <v>77.20000000000002</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D195" t="n">
-        <v>-4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>58.1999999999998</v>
+        <v>77.60000000000002</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D196" t="n">
-        <v>-4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>58.4999999999998</v>
+        <v>78.00000000000003</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D197" t="n">
-        <v>-4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>58.7999999999998</v>
+        <v>78.40000000000003</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D198" t="n">
-        <v>-4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>59.0999999999998</v>
+        <v>78.80000000000004</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D199" t="n">
-        <v>-4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>59.39999999999979</v>
+        <v>79.20000000000005</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D200" t="n">
-        <v>-3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>59.69999999999979</v>
+        <v>79.60000000000005</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>-3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>59.99999999999979</v>
+        <v>80.00000000000006</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D202" t="n">
-        <v>-3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>60.29999999999978</v>
+        <v>80.40000000000006</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D203" t="n">
-        <v>-2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>60.59999999999978</v>
+        <v>80.80000000000007</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D204" t="n">
-        <v>-2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>60.89999999999978</v>
+        <v>81.20000000000007</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D205" t="n">
-        <v>-2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>61.19999999999978</v>
+        <v>81.60000000000008</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D206" t="n">
-        <v>-2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>61.49999999999977</v>
+        <v>82.00000000000009</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D207" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>61.79999999999977</v>
+        <v>82.40000000000009</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D208" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>62.09999999999977</v>
+        <v>82.8000000000001</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D209" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>62.39999999999976</v>
+        <v>83.2000000000001</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>62.69999999999976</v>
+        <v>83.60000000000011</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>62.99999999999976</v>
+        <v>84.00000000000011</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>63.29999999999976</v>
+        <v>84.40000000000012</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>63.59999999999975</v>
+        <v>84.80000000000013</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>63.89999999999975</v>
+        <v>85.20000000000013</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>64.19999999999975</v>
+        <v>85.60000000000014</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -3465,7 +3465,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>64.49999999999974</v>
+        <v>86.00000000000014</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>64.79999999999974</v>
+        <v>86.40000000000015</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>65.09999999999974</v>
+        <v>86.80000000000015</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>65.39999999999974</v>
+        <v>87.20000000000016</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>65.69999999999973</v>
+        <v>87.60000000000016</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D221" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>65.99999999999973</v>
+        <v>88.00000000000017</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D222" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>66.29999999999973</v>
+        <v>88.40000000000018</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>66.59999999999972</v>
+        <v>88.80000000000018</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D224" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>66.89999999999972</v>
+        <v>89.20000000000019</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D225" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>67.19999999999972</v>
+        <v>89.60000000000019</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D226" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>67.49999999999972</v>
+        <v>90.0000000000002</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>67.79999999999971</v>
+        <v>90.4000000000002</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D228" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>68.09999999999971</v>
+        <v>90.80000000000021</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D229" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>68.39999999999971</v>
+        <v>91.20000000000022</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D230" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>68.6999999999997</v>
+        <v>91.60000000000022</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D231" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>68.9999999999997</v>
+        <v>92.00000000000023</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D232" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>69.2999999999997</v>
+        <v>92.40000000000023</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D233" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>69.5999999999997</v>
+        <v>92.80000000000024</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D234" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>69.89999999999969</v>
+        <v>93.20000000000024</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D235" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>70.19999999999969</v>
+        <v>93.60000000000025</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>70.49999999999969</v>
+        <v>94.00000000000026</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>70.79999999999968</v>
+        <v>94.40000000000026</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D238" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>71.09999999999968</v>
+        <v>94.80000000000027</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D239" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>71.39999999999968</v>
+        <v>95.20000000000027</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D240" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>71.69999999999968</v>
+        <v>95.60000000000028</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D241" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>71.99999999999967</v>
+        <v>96.00000000000028</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D242" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>72.29999999999967</v>
+        <v>96.40000000000029</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D243" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>72.59999999999967</v>
+        <v>96.8000000000003</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D244" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>72.89999999999966</v>
+        <v>97.2000000000003</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D245" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>73.19999999999966</v>
+        <v>97.60000000000031</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D246" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>73.49999999999966</v>
+        <v>98.00000000000031</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D247" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>73.79999999999966</v>
+        <v>98.40000000000032</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D248" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>74.09999999999965</v>
+        <v>98.80000000000032</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>74.39999999999965</v>
+        <v>99.20000000000033</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D250" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="251">
@@ -3941,10 +3941,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>74.69999999999965</v>
+        <v>99.60000000000034</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D251" t="n">
         <v>3</v>
@@ -3955,10 +3955,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>74.99999999999964</v>
+        <v>100.0000000000003</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D252" t="n">
         <v>2</v>
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>75.29999999999964</v>
+        <v>100.4000000000003</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>75.59999999999964</v>
+        <v>100.8000000000004</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D254" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>75.89999999999964</v>
+        <v>101.2000000000004</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>76.19999999999963</v>
+        <v>101.6000000000004</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>76.49999999999963</v>
+        <v>102.0000000000004</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>76.79999999999963</v>
+        <v>102.4000000000004</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>77.09999999999962</v>
+        <v>102.8000000000004</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>77.39999999999962</v>
+        <v>103.2000000000004</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>77.69999999999962</v>
+        <v>103.6000000000004</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>77.99999999999962</v>
+        <v>104.0000000000004</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D262" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>78.29999999999961</v>
+        <v>104.4000000000004</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D263" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>78.59999999999961</v>
+        <v>104.8000000000004</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D264" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>78.89999999999961</v>
+        <v>105.2000000000004</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D265" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>79.1999999999996</v>
+        <v>105.6000000000004</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D266" t="n">
-        <v>-2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>79.4999999999996</v>
+        <v>106.0000000000004</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D267" t="n">
-        <v>-2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>79.7999999999996</v>
+        <v>106.4000000000004</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D268" t="n">
-        <v>-2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>80.0999999999996</v>
+        <v>106.8000000000004</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D269" t="n">
-        <v>-3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>80.39999999999959</v>
+        <v>107.2000000000004</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D270" t="n">
-        <v>-3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>80.69999999999959</v>
+        <v>107.6000000000004</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D271" t="n">
-        <v>-3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>80.99999999999959</v>
+        <v>108.0000000000005</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D272" t="n">
-        <v>-3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>81.29999999999959</v>
+        <v>108.4000000000005</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D273" t="n">
-        <v>-4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>81.59999999999958</v>
+        <v>108.8000000000005</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D274" t="n">
-        <v>-4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>81.89999999999958</v>
+        <v>109.2000000000005</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D275" t="n">
-        <v>-4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>82.19999999999958</v>
+        <v>109.6000000000005</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D276" t="n">
-        <v>-4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>82.49999999999957</v>
+        <v>110.0000000000005</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D277" t="n">
-        <v>-4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>82.79999999999957</v>
+        <v>110.4000000000005</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D278" t="n">
-        <v>-5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>83.09999999999957</v>
+        <v>110.8000000000005</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D279" t="n">
-        <v>-5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>83.39999999999957</v>
+        <v>111.2000000000005</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D280" t="n">
-        <v>-5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>83.69999999999956</v>
+        <v>111.6000000000005</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D281" t="n">
-        <v>-5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>83.99999999999956</v>
+        <v>112.0000000000005</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D282" t="n">
-        <v>-5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>84.29999999999956</v>
+        <v>112.4000000000005</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D283" t="n">
-        <v>-5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>84.59999999999955</v>
+        <v>112.8000000000005</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D284" t="n">
-        <v>-5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>84.89999999999955</v>
+        <v>113.2000000000005</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D285" t="n">
-        <v>-5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>85.19999999999955</v>
+        <v>113.6000000000005</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D286" t="n">
-        <v>-5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>85.49999999999955</v>
+        <v>114.0000000000005</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D287" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>85.79999999999954</v>
+        <v>114.4000000000005</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>86.09999999999954</v>
+        <v>114.8000000000006</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>86.39999999999954</v>
+        <v>115.2000000000006</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>86.69999999999953</v>
+        <v>115.6000000000006</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
       </c>
       <c r="D291" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>86.99999999999953</v>
+        <v>116.0000000000006</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D292" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>87.29999999999953</v>
+        <v>116.4000000000006</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D293" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>87.59999999999953</v>
+        <v>116.8000000000006</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D294" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>87.89999999999952</v>
+        <v>117.2000000000006</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D295" t="n">
-        <v>-5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>88.19999999999952</v>
+        <v>117.6000000000006</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D296" t="n">
-        <v>-5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>88.49999999999952</v>
+        <v>118.0000000000006</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D297" t="n">
-        <v>-5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>88.79999999999951</v>
+        <v>118.4000000000006</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>-5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>89.09999999999951</v>
+        <v>118.8000000000006</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D299" t="n">
-        <v>-4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>89.39999999999951</v>
+        <v>119.2000000000006</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D300" t="n">
-        <v>-4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
@@ -4641,1427 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>89.69999999999951</v>
+        <v>119.6000000000006</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D301" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>89.9999999999995</v>
-      </c>
-      <c r="C302" t="n">
-        <v>0</v>
-      </c>
-      <c r="D302" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>90.2999999999995</v>
-      </c>
-      <c r="C303" t="n">
-        <v>0</v>
-      </c>
-      <c r="D303" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>90.5999999999995</v>
-      </c>
-      <c r="C304" t="n">
-        <v>0</v>
-      </c>
-      <c r="D304" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>90.89999999999949</v>
-      </c>
-      <c r="C305" t="n">
-        <v>0</v>
-      </c>
-      <c r="D305" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>91.19999999999949</v>
-      </c>
-      <c r="C306" t="n">
-        <v>0</v>
-      </c>
-      <c r="D306" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>91.49999999999949</v>
-      </c>
-      <c r="C307" t="n">
-        <v>0</v>
-      </c>
-      <c r="D307" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>91.79999999999949</v>
-      </c>
-      <c r="C308" t="n">
-        <v>0</v>
-      </c>
-      <c r="D308" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>92.09999999999948</v>
-      </c>
-      <c r="C309" t="n">
-        <v>0</v>
-      </c>
-      <c r="D309" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>92.39999999999948</v>
-      </c>
-      <c r="C310" t="n">
-        <v>0</v>
-      </c>
-      <c r="D310" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>92.69999999999948</v>
-      </c>
-      <c r="C311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D311" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>92.99999999999947</v>
-      </c>
-      <c r="C312" t="n">
-        <v>0</v>
-      </c>
-      <c r="D312" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>93.29999999999947</v>
-      </c>
-      <c r="C313" t="n">
-        <v>0</v>
-      </c>
-      <c r="D313" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>93.59999999999947</v>
-      </c>
-      <c r="C314" t="n">
-        <v>0</v>
-      </c>
-      <c r="D314" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>93.89999999999947</v>
-      </c>
-      <c r="C315" t="n">
-        <v>0</v>
-      </c>
-      <c r="D315" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>94.19999999999946</v>
-      </c>
-      <c r="C316" t="n">
-        <v>0</v>
-      </c>
-      <c r="D316" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>94.49999999999946</v>
-      </c>
-      <c r="C317" t="n">
-        <v>0</v>
-      </c>
-      <c r="D317" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>94.79999999999946</v>
-      </c>
-      <c r="C318" t="n">
-        <v>0</v>
-      </c>
-      <c r="D318" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>95.09999999999945</v>
-      </c>
-      <c r="C319" t="n">
-        <v>0</v>
-      </c>
-      <c r="D319" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>95.39999999999945</v>
-      </c>
-      <c r="C320" t="n">
-        <v>0</v>
-      </c>
-      <c r="D320" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>95.69999999999945</v>
-      </c>
-      <c r="C321" t="n">
-        <v>0</v>
-      </c>
-      <c r="D321" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>95.99999999999945</v>
-      </c>
-      <c r="C322" t="n">
-        <v>0</v>
-      </c>
-      <c r="D322" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>96.29999999999944</v>
-      </c>
-      <c r="C323" t="n">
-        <v>0</v>
-      </c>
-      <c r="D323" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>96.59999999999944</v>
-      </c>
-      <c r="C324" t="n">
-        <v>0</v>
-      </c>
-      <c r="D324" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>96.89999999999944</v>
-      </c>
-      <c r="C325" t="n">
-        <v>0</v>
-      </c>
-      <c r="D325" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>97.19999999999943</v>
-      </c>
-      <c r="C326" t="n">
-        <v>0</v>
-      </c>
-      <c r="D326" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>97.49999999999943</v>
-      </c>
-      <c r="C327" t="n">
-        <v>0</v>
-      </c>
-      <c r="D327" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>97.79999999999943</v>
-      </c>
-      <c r="C328" t="n">
-        <v>0</v>
-      </c>
-      <c r="D328" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>98.09999999999943</v>
-      </c>
-      <c r="C329" t="n">
-        <v>0</v>
-      </c>
-      <c r="D329" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>98.39999999999942</v>
-      </c>
-      <c r="C330" t="n">
-        <v>0</v>
-      </c>
-      <c r="D330" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>98.69999999999942</v>
-      </c>
-      <c r="C331" t="n">
-        <v>0</v>
-      </c>
-      <c r="D331" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>98.99999999999942</v>
-      </c>
-      <c r="C332" t="n">
-        <v>0</v>
-      </c>
-      <c r="D332" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>99.29999999999941</v>
-      </c>
-      <c r="C333" t="n">
-        <v>0</v>
-      </c>
-      <c r="D333" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>99.59999999999941</v>
-      </c>
-      <c r="C334" t="n">
-        <v>0</v>
-      </c>
-      <c r="D334" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>99.89999999999941</v>
-      </c>
-      <c r="C335" t="n">
-        <v>0</v>
-      </c>
-      <c r="D335" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>100.1999999999994</v>
-      </c>
-      <c r="C336" t="n">
-        <v>0</v>
-      </c>
-      <c r="D336" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>100.4999999999994</v>
-      </c>
-      <c r="C337" t="n">
-        <v>0</v>
-      </c>
-      <c r="D337" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>100.7999999999994</v>
-      </c>
-      <c r="C338" t="n">
-        <v>0</v>
-      </c>
-      <c r="D338" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>101.0999999999994</v>
-      </c>
-      <c r="C339" t="n">
-        <v>0</v>
-      </c>
-      <c r="D339" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>101.3999999999994</v>
-      </c>
-      <c r="C340" t="n">
-        <v>0</v>
-      </c>
-      <c r="D340" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>101.6999999999994</v>
-      </c>
-      <c r="C341" t="n">
-        <v>0</v>
-      </c>
-      <c r="D341" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>101.9999999999994</v>
-      </c>
-      <c r="C342" t="n">
-        <v>0</v>
-      </c>
-      <c r="D342" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>102.2999999999994</v>
-      </c>
-      <c r="C343" t="n">
-        <v>0</v>
-      </c>
-      <c r="D343" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>102.5999999999994</v>
-      </c>
-      <c r="C344" t="n">
-        <v>0</v>
-      </c>
-      <c r="D344" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>102.8999999999994</v>
-      </c>
-      <c r="C345" t="n">
-        <v>0</v>
-      </c>
-      <c r="D345" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>103.1999999999994</v>
-      </c>
-      <c r="C346" t="n">
-        <v>0</v>
-      </c>
-      <c r="D346" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>103.4999999999994</v>
-      </c>
-      <c r="C347" t="n">
-        <v>0</v>
-      </c>
-      <c r="D347" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>103.7999999999994</v>
-      </c>
-      <c r="C348" t="n">
-        <v>0</v>
-      </c>
-      <c r="D348" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>104.0999999999994</v>
-      </c>
-      <c r="C349" t="n">
-        <v>0</v>
-      </c>
-      <c r="D349" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>104.3999999999994</v>
-      </c>
-      <c r="C350" t="n">
-        <v>0</v>
-      </c>
-      <c r="D350" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>104.6999999999994</v>
-      </c>
-      <c r="C351" t="n">
-        <v>0</v>
-      </c>
-      <c r="D351" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>104.9999999999994</v>
-      </c>
-      <c r="C352" t="n">
-        <v>0</v>
-      </c>
-      <c r="D352" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>105.2999999999994</v>
-      </c>
-      <c r="C353" t="n">
-        <v>0</v>
-      </c>
-      <c r="D353" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>105.5999999999994</v>
-      </c>
-      <c r="C354" t="n">
-        <v>0</v>
-      </c>
-      <c r="D354" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>105.8999999999994</v>
-      </c>
-      <c r="C355" t="n">
-        <v>0</v>
-      </c>
-      <c r="D355" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>106.1999999999993</v>
-      </c>
-      <c r="C356" t="n">
-        <v>0</v>
-      </c>
-      <c r="D356" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>106.4999999999993</v>
-      </c>
-      <c r="C357" t="n">
-        <v>0</v>
-      </c>
-      <c r="D357" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>106.7999999999993</v>
-      </c>
-      <c r="C358" t="n">
-        <v>0</v>
-      </c>
-      <c r="D358" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>107.0999999999993</v>
-      </c>
-      <c r="C359" t="n">
-        <v>0</v>
-      </c>
-      <c r="D359" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>107.3999999999993</v>
-      </c>
-      <c r="C360" t="n">
-        <v>0</v>
-      </c>
-      <c r="D360" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>107.6999999999993</v>
-      </c>
-      <c r="C361" t="n">
-        <v>0</v>
-      </c>
-      <c r="D361" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>107.9999999999993</v>
-      </c>
-      <c r="C362" t="n">
-        <v>0</v>
-      </c>
-      <c r="D362" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>108.2999999999993</v>
-      </c>
-      <c r="C363" t="n">
-        <v>0</v>
-      </c>
-      <c r="D363" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>108.5999999999993</v>
-      </c>
-      <c r="C364" t="n">
-        <v>0</v>
-      </c>
-      <c r="D364" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>108.8999999999993</v>
-      </c>
-      <c r="C365" t="n">
-        <v>0</v>
-      </c>
-      <c r="D365" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>109.1999999999993</v>
-      </c>
-      <c r="C366" t="n">
-        <v>0</v>
-      </c>
-      <c r="D366" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>109.4999999999993</v>
-      </c>
-      <c r="C367" t="n">
-        <v>0</v>
-      </c>
-      <c r="D367" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>109.7999999999993</v>
-      </c>
-      <c r="C368" t="n">
-        <v>0</v>
-      </c>
-      <c r="D368" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>110.0999999999993</v>
-      </c>
-      <c r="C369" t="n">
-        <v>0</v>
-      </c>
-      <c r="D369" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>110.3999999999993</v>
-      </c>
-      <c r="C370" t="n">
-        <v>0</v>
-      </c>
-      <c r="D370" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>110.6999999999993</v>
-      </c>
-      <c r="C371" t="n">
-        <v>0</v>
-      </c>
-      <c r="D371" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>110.9999999999993</v>
-      </c>
-      <c r="C372" t="n">
-        <v>0</v>
-      </c>
-      <c r="D372" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>111.2999999999993</v>
-      </c>
-      <c r="C373" t="n">
-        <v>0</v>
-      </c>
-      <c r="D373" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>111.5999999999993</v>
-      </c>
-      <c r="C374" t="n">
-        <v>0</v>
-      </c>
-      <c r="D374" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>111.8999999999993</v>
-      </c>
-      <c r="C375" t="n">
-        <v>0</v>
-      </c>
-      <c r="D375" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>112.1999999999993</v>
-      </c>
-      <c r="C376" t="n">
-        <v>0</v>
-      </c>
-      <c r="D376" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>112.4999999999993</v>
-      </c>
-      <c r="C377" t="n">
-        <v>0</v>
-      </c>
-      <c r="D377" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>112.7999999999993</v>
-      </c>
-      <c r="C378" t="n">
-        <v>0</v>
-      </c>
-      <c r="D378" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>113.0999999999993</v>
-      </c>
-      <c r="C379" t="n">
-        <v>0</v>
-      </c>
-      <c r="D379" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>113.3999999999993</v>
-      </c>
-      <c r="C380" t="n">
-        <v>0</v>
-      </c>
-      <c r="D380" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>113.6999999999993</v>
-      </c>
-      <c r="C381" t="n">
-        <v>0</v>
-      </c>
-      <c r="D381" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>113.9999999999993</v>
-      </c>
-      <c r="C382" t="n">
-        <v>0</v>
-      </c>
-      <c r="D382" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>114.2999999999993</v>
-      </c>
-      <c r="C383" t="n">
-        <v>0</v>
-      </c>
-      <c r="D383" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>114.5999999999993</v>
-      </c>
-      <c r="C384" t="n">
-        <v>0</v>
-      </c>
-      <c r="D384" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>114.8999999999993</v>
-      </c>
-      <c r="C385" t="n">
-        <v>0</v>
-      </c>
-      <c r="D385" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>115.1999999999993</v>
-      </c>
-      <c r="C386" t="n">
-        <v>0</v>
-      </c>
-      <c r="D386" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>115.4999999999993</v>
-      </c>
-      <c r="C387" t="n">
-        <v>0</v>
-      </c>
-      <c r="D387" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>115.7999999999993</v>
-      </c>
-      <c r="C388" t="n">
-        <v>0</v>
-      </c>
-      <c r="D388" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>116.0999999999993</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0</v>
-      </c>
-      <c r="D389" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>116.3999999999993</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0</v>
-      </c>
-      <c r="D390" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>116.6999999999992</v>
-      </c>
-      <c r="C391" t="n">
-        <v>0</v>
-      </c>
-      <c r="D391" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>116.9999999999992</v>
-      </c>
-      <c r="C392" t="n">
-        <v>0</v>
-      </c>
-      <c r="D392" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>117.2999999999992</v>
-      </c>
-      <c r="C393" t="n">
-        <v>0</v>
-      </c>
-      <c r="D393" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>117.5999999999992</v>
-      </c>
-      <c r="C394" t="n">
-        <v>0</v>
-      </c>
-      <c r="D394" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>117.8999999999992</v>
-      </c>
-      <c r="C395" t="n">
-        <v>0</v>
-      </c>
-      <c r="D395" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>118.1999999999992</v>
-      </c>
-      <c r="C396" t="n">
-        <v>0</v>
-      </c>
-      <c r="D396" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>118.4999999999992</v>
-      </c>
-      <c r="C397" t="n">
-        <v>0</v>
-      </c>
-      <c r="D397" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>118.7999999999992</v>
-      </c>
-      <c r="C398" t="n">
-        <v>0</v>
-      </c>
-      <c r="D398" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>119.0999999999992</v>
-      </c>
-      <c r="C399" t="n">
-        <v>0</v>
-      </c>
-      <c r="D399" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>119.3999999999992</v>
-      </c>
-      <c r="C400" t="n">
-        <v>0</v>
-      </c>
-      <c r="D400" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>119.6999999999992</v>
-      </c>
-      <c r="C401" t="n">
-        <v>0</v>
-      </c>
-      <c r="D401" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>119.9999999999992</v>
-      </c>
-      <c r="C402" t="n">
-        <v>0</v>
-      </c>
-      <c r="D402" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
